--- a/Vacations 2020.xlsx
+++ b/Vacations 2020.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7874bdcc0642262c/Desktop/parcap-github/personal-interests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njathar\Desktop\parcap-github\personal-interests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{DE14A12E-CCC7-4358-916F-F5127B87F1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07314F82-BDE3-4D1D-B7E8-7916A9B217E3}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21786" windowHeight="13986" xr2:uid="{05D687A8-9031-458D-AF33-F614225EBB17}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21780" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="50" iterateDelta="1.0000000000000001E-9" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Month</t>
   </si>
@@ -53,18 +52,12 @@
     <t>Capitva</t>
   </si>
   <si>
-    <t>Wachusett</t>
-  </si>
-  <si>
     <t>01/17  to  01/20</t>
   </si>
   <si>
     <t>02/01  to  02/02</t>
   </si>
   <si>
-    <t>02/29  or  03/01</t>
-  </si>
-  <si>
     <t>02/18  to  02/25</t>
   </si>
   <si>
@@ -137,16 +130,19 @@
     <t>Deed's Conference in Pittsburgh</t>
   </si>
   <si>
-    <t>Sometime in March</t>
-  </si>
-  <si>
-    <t>One more ski trip</t>
+    <t>03/21  to  03/22</t>
+  </si>
+  <si>
+    <t>Cranmore</t>
+  </si>
+  <si>
+    <t>Waterville Valley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,18 +160,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -196,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -207,10 +197,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -526,22 +512,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72718F46-B0EA-4187-934F-AABB2BDF698C}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.05859375" customWidth="1"/>
-    <col min="2" max="2" width="32.52734375" customWidth="1"/>
-    <col min="3" max="3" width="11.9375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,73 +538,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -626,76 +612,68 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A12" s="6" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
         <v>3</v>
       </c>
     </row>
